--- a/ExcelReportGenerator.Tests/TestData/TotalsPanelRenderTest/TestPanelRender.xlsx
+++ b/ExcelReportGenerator.Tests/TestData/TotalsPanelRenderTest/TestPanelRender.xlsx
@@ -1,82 +1,94 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr codeName="ThisWorkbook"/>
-  <bookViews>
-    <workbookView xWindow="630" yWindow="600" windowWidth="27495" windowHeight="11955"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Test" sheetId="2" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="0"/>
-</workbook>
+<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:workbookPr codeName="ThisWorkbook"/>
+  <x:bookViews>
+    <x:workbookView firstSheet="0" activeTab="0"/>
+  </x:bookViews>
+  <x:sheets>
+    <x:sheet name="Test" sheetId="2" r:id="rId2"/>
+  </x:sheets>
+  <x:definedNames/>
+  <x:calcPr calcId="125725"/>
+</x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Changed plain text</t>
-  </si>
-  <si>
-    <t>930,708</t>
-  </si>
-  <si>
-    <t>Text1 3 Text2 1888,86 Text3 5500,80</t>
-  </si>
-  <si>
-    <t>{Mix(di:Sum)}</t>
-  </si>
-  <si>
-    <t>{Sum(di:Sum)}</t>
-  </si>
-</sst>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <x:si>
+    <x:t>Changed plain text</x:t>
+  </x:si>
+  <x:si>
+    <x:t>930,708</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Text1 3 Text2 1888,86 Text3 5500,80</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{Mix(di:Sum)}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{Sum(di:Sum)}</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-  </fills>
-  <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
-  </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
-</styleSheet>
+<x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:numFmts count="1">
+    <x:numFmt numFmtId="0" formatCode=""/>
+  </x:numFmts>
+  <x:fonts count="1">
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+  </x:fonts>
+  <x:fills count="2">
+    <x:fill>
+      <x:patternFill patternType="none"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="gray125"/>
+    </x:fill>
+  </x:fills>
+  <x:borders count="1">
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="none">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="none">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="none">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="none">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+  </x:borders>
+  <x:cellStyleXfs count="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+  </x:cellStyleXfs>
+  <x:cellXfs count="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+  </x:cellXfs>
+  <x:cellStyles count="1">
+    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </x:cellStyles>
+</x:styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -363,39 +375,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>5666.58</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1">
-        <v>55.78</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:I1"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:9">
+      <x:c r="A1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="n">
+        <x:v>5666.58</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="n">
+        <x:v>55.78</x:v>
+      </x:c>
+      <x:c r="E1" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="F1" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G1" s="0">
+        <x:f>SUM(B1:D1)</x:f>
+      </x:c>
+      <x:c r="H1" s="0">
+        <x:f>ROW()</x:f>
+      </x:c>
+      <x:c r="I1" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>
--- a/ExcelReportGenerator.Tests/TestData/TotalsPanelRenderTest/TestPanelRender.xlsx
+++ b/ExcelReportGenerator.Tests/TestData/TotalsPanelRenderTest/TestPanelRender.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <x:si>
     <x:t>Changed plain text</x:t>
   </x:si>
@@ -22,10 +22,16 @@
     <x:t>930,708</x:t>
   </x:si>
   <x:si>
-    <x:t>Text1 3 Text2 1888,86 Text3 5500,80</x:t>
+    <x:t>Text1 3 Text2 1888,86 String parameter 5500,80 5500,80</x:t>
   </x:si>
   <x:si>
     <x:t>{Mix(di:Sum)}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>55,8000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Aggregation: 7389,66. Date: 25.10.2017</x:t>
   </x:si>
   <x:si>
     <x:t>{Sum(di:Sum)}</x:t>
@@ -379,13 +385,13 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:I1"/>
+  <x:dimension ref="A1:M1"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:9">
+    <x:row r="1" spans="1:13">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -410,8 +416,20 @@
       <x:c r="H1" s="0">
         <x:f>ROW()</x:f>
       </x:c>
-      <x:c r="I1" s="0" t="s">
+      <x:c r="I1" s="0" t="n">
+        <x:v>20171025</x:v>
+      </x:c>
+      <x:c r="J1" s="0" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="K1" s="0" t="s">
         <x:v>4</x:v>
+      </x:c>
+      <x:c r="L1" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="M1" s="0" t="s">
+        <x:v>6</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/ExcelReportGenerator.Tests/TestData/TotalsPanelRenderTest/TestPanelRender.xlsx
+++ b/ExcelReportGenerator.Tests/TestData/TotalsPanelRenderTest/TestPanelRender.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
     <x:t>Changed plain text</x:t>
   </x:si>
@@ -26,6 +26,9 @@
   </x:si>
   <x:si>
     <x:t>{Mix(di:Sum)}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20171025</x:t>
   </x:si>
   <x:si>
     <x:t>55,8000</x:t>
@@ -395,13 +398,13 @@
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B1" s="0" t="n">
+      <x:c r="B1" s="0">
         <x:v>5666.58</x:v>
       </x:c>
       <x:c r="C1" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="D1" s="0" t="n">
+      <x:c r="D1" s="0">
         <x:v>55.78</x:v>
       </x:c>
       <x:c r="E1" s="0" t="s">
@@ -416,20 +419,20 @@
       <x:c r="H1" s="0">
         <x:f>ROW()</x:f>
       </x:c>
-      <x:c r="I1" s="0" t="n">
-        <x:v>20171025</x:v>
-      </x:c>
-      <x:c r="J1" s="0" t="n">
+      <x:c r="I1" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="J1" s="0">
         <x:v>10</x:v>
       </x:c>
       <x:c r="K1" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="L1" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="M1" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
